--- a/Table.xlsx
+++ b/Table.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\terver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasha\OneDrive\Desktop\terver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,8 +24,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,14 +352,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Table.xlsx
+++ b/Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\terver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasha\OneDrive\Desktop\terver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +23,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -43,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,12 +64,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -337,14 +376,3358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-9.4520237578399247</v>
+      </c>
+      <c r="C1">
+        <v>-13.186005415045656</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>MAX(C1:C40)</f>
+        <v>-6.0002696752781048</v>
+      </c>
+      <c r="F1">
+        <f>(E$2-E$1) / 8 * D1 + E$1</f>
+        <v>-6.0002696752781048</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-10.38680241232214</v>
+      </c>
+      <c r="C2">
+        <v>-8.1300902618386317</v>
+      </c>
+      <c r="D2">
+        <f>D1+1</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>MIN(C2:C41)</f>
+        <v>-16.52125891065225</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F8" si="0">(E$2-E$1) / 8 * D2 + E$1</f>
+        <v>-7.315393329699873</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-9.078494283821783</v>
+      </c>
+      <c r="C3">
+        <v>-7.8333107719663531</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D39" si="1">D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-8.6305169841216411</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-7.6732112827448873</v>
+      </c>
+      <c r="C4">
+        <v>-6.8417967011191649</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-9.9456406385434093</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-12.461405301801278</v>
+      </c>
+      <c r="C5">
+        <v>-10.051352344598854</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-11.260764292965177</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-12.029599954767036</v>
+      </c>
+      <c r="C6">
+        <v>-10.031650415621698</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-12.575887947386946</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-11.381329184368951</v>
+      </c>
+      <c r="C7">
+        <v>-10.979068204287614</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-13.891011601808714</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-8.8744320944533683</v>
+      </c>
+      <c r="C8">
+        <v>-6.0503487272944767</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-15.206135256230482</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-11.526058213130455</v>
+      </c>
+      <c r="C9">
+        <v>-9.8055955074960366</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-7.567311993407202</v>
+      </c>
+      <c r="C10">
+        <v>-10.422846824221779</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-8.0197287641203729</v>
+      </c>
+      <c r="C11">
+        <v>-8.0306995439605089</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-10.774821273807902</v>
+      </c>
+      <c r="C12">
+        <v>-7.2245120716252131</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-9.1030108503764495</v>
+      </c>
+      <c r="C13">
+        <v>-13.032664608326741</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-13.098784873145632</v>
+      </c>
+      <c r="C14">
+        <v>-12.74768012786808</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-11.068920596480893</v>
+      </c>
+      <c r="C15">
+        <v>-10.099186081570224</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-13.186005415045656</v>
+      </c>
+      <c r="C16">
+        <v>-7.5623950376757421</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-5.8326043270062655</v>
+      </c>
+      <c r="C17">
+        <v>-6.8917109072208405</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-5.4841314320219681</v>
+      </c>
+      <c r="C18">
+        <v>-14.840194378630258</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-8.8655360994016519</v>
+      </c>
+      <c r="C19">
+        <v>-10.259507260125247</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-10.171587544173235</v>
+      </c>
+      <c r="C20">
+        <v>-8.495087538685766</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-11.468168875362608</v>
+      </c>
+      <c r="C21">
+        <v>-7.3137619235785678</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-7.8333107719663531</v>
+      </c>
+      <c r="C22">
+        <v>-6.3522327561804559</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-11.638215962884715</v>
+      </c>
+      <c r="C23">
+        <v>-12.208474825238227</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-8.7772639542527031</v>
+      </c>
+      <c r="C24">
+        <v>-6.4286985232320148</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-6.6644736559828743</v>
+      </c>
+      <c r="C25">
+        <v>-10.609264816375799</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-9.1121853781805839</v>
+      </c>
+      <c r="C26">
+        <v>-7.1063061821041629</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-5.9975184538052417</v>
+      </c>
+      <c r="C27">
+        <v>-9.6777205524267629</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-16.319714884739369</v>
+      </c>
+      <c r="C28">
+        <v>-9.0217588674568105</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-4.9069206195417792</v>
+      </c>
+      <c r="C29">
+        <v>-8.6422267284069676</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-7.8151606683240971</v>
+      </c>
+      <c r="C30">
+        <v>-16.52125891065225</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-6.3720824780466501</v>
+      </c>
+      <c r="C31">
+        <v>-10.568562086300517</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-8.817844470977434</v>
+      </c>
+      <c r="C32">
+        <v>-6.0002696752781048</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-7.8626760821498465</v>
+      </c>
+      <c r="C33">
+        <v>-10.62464380334859</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-9.1142203725758009</v>
+      </c>
+      <c r="C34">
+        <v>-7.7121490246645408</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-6.0098648443818092</v>
+      </c>
+      <c r="C35">
+        <v>-9.295312136382563</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-7.3059175317757763</v>
+      </c>
+      <c r="C36">
+        <v>-7.3059175317757763</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-11.172969632534659</v>
+      </c>
+      <c r="C37">
+        <v>-13.638922407844802</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-8.5916332434499054</v>
+      </c>
+      <c r="C38">
+        <v>-9.0448401376852416</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-9.6827341419702861</v>
+      </c>
+      <c r="C39">
+        <v>-8.7428765280128573</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-10.259507260125247</v>
+      </c>
+      <c r="C40">
+        <v>-6.259941781318048</v>
+      </c>
+      <c r="D40">
+        <f>D39+1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-9.7014242580917198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-12.872491222660756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-9.9696854047215311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-9.4328106822649715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-10.13479848348652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-10.376934394807904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-3.0121703073382378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-9.8598383399439626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-11.399186544404074</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-8.854713112450554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-7.5623950376757421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-8.362261521833716</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-11.399186544404074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-13.576087692636065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-11.614819211681606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-12.751181682469905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-9.8632858932978706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-5.9968249640951399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-9.7301074472488835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-7.8879259288078174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-10.586240389566228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-10.965454205470451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-14.631033334590029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-9.5377180539435358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-11.068710275831108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-5.9899241730454378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-8.090646613491117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-8.399761125256191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-9.198647060438816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-8.4996691182459472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-10.484672568745736</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-17.264679879881442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-8.2142867338552605</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-5.5443854560144246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-10.002580691216281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-11.880806621556985</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-11.407471472703037</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-12.80903122984455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-8.0413747380225686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-4.728364072216209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-11.444374220227473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-13.387003744137473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-7.1063061821041629</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-10.40055283534457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-7.5183300193748437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-11.321569698120584</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-8.9455204740806948</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-9.361929781116487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-10.497541918775823</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-10.771012764744228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-7.8884716256288812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-10.04657181307266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-9.9069359546410851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-8.354667241073912</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-6.8417967011191649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-11.931704218804953</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-9.9955065277390531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-9.0672279182035709</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-9.7754628111579223</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-9.8042511606399785</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-12.871752258215565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-10.876212880029925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-7.8416553858551197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-7.2973569128953386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-10.031650415621698</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-7.3137619235785678</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-10.099186081570224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-10.668742927700805</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-4.0013367449864745</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-9.0487481227319222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-9.7783419303232222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-12.080543026750092</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-15.086985765956342</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-12.226045126008103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-13.461263986537233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-5.9570345708925743</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-3.7864231469575316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-9.7224108483351301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-9.9551505425188225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-11.947725536410871</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-10.302233615911973</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-9.0062548249625252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-7.6779236021684483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-15.324000085238367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-8.3570432959822938</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-6.5496726872515865</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-16.52125891065225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>-10.502029706694884</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-12.537058207963128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>-10.443617409473518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>-10.667552058075671</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-5.591338119993452</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>-6.8817405715526547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>-9.0448401376852416</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-7.0867861520673614</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-8.3394388891611015</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-7.3485898863145849</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-8.4552346177224535</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>-5.7882209855597466</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>-7.304206544868066</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>-9.6736704588329303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>-10.841927771944029</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>-10.779238007453387</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>-13.887589627993293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>-12.888464223360643</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>-10.842939584799751</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>-9.8690327629446983</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>-11.107605385186616</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>-7.5064042700978462</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>-7.9834001351264305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>-13.066475073865149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>-11.467032006985391</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>-4.1560872684931383</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>-6.8867314237286337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>-10.018457058104104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>-5.4674194668768905</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>-9.558906438323902</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>-8.7428765280128573</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>-12.933671794380643</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>-12.81119127976126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>-8.8189131272520171</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>-10.659827037452487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>-11.235684976563789</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>-10.571114355807367</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>-14.439789336174726</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>-9.9184183252509683</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>-13.212460342183476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>-9.805976358402404</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>-10.086939166976663</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>-6.7072881190688349</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>-12.236015461676288</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>-14.347521098679863</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>-5.7169620756758377</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>-9.5472478531155502</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>-8.573667880918947</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>-9.4439917827548925</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>-8.388008748406719</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>-10.422846824221779</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>-14.476351023185998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>-11.375764213662478</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>-9.9777202219775063</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>-6.4999233270646073</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>-13.638922407844802</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>-11.844705366238486</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>-6.0309196467278525</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>-9.2135315096675185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>-10.071057115746953</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>-9.455354782185168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>-10.021134383132448</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>-7.8224366259382805</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>-11.38266500471218</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>-10.242593500843213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>-3.4134393697604537</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>-14.146818355366122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>-15.090032573207282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>-6.5806409818469547</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>-8.7219979402652825</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>-7.9672054450929863</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>-12.002337851081393</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>-11.778806790753151</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>-9.6240319433127297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>-13.032664608326741</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>-11.791391923688934</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>-15.394417712523136</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>-11.874212784969131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>-10.332309468831227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>-11.792875536921201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>-5.0410710880532861</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>-9.6777205524267629</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>-9.4410501358288457</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>-11.618354872334749</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>-12.112619768013246</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>-12.751528427324956</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>-8.5356907927780412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>-11.475447675147734</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>-8.854502791800769</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>-8.3047018758952618</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>-8.084240360185504</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>-11.710975539026549</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>-8.0301765845069895</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>-13.873549303534674</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>-6.7380063026212156</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>-7.4991624185349792</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>-8.8231877523503499</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>-9.7245254235167522</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>-11.325309995081625</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>-14.252660801284947</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>-12.399741561021074</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>-14.511957740760408</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>-11.864600562839769</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>-11.78768573277921</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>-14.08816731578554</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>-8.062361328265979</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>-10.074311401476734</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>-5.9612750899395905</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>-9.9027266994744423</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>-10.542294742444938</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>-13.384127467143117</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>-6.6770019454997964</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>-9.5528838780955994</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>-8.1640712576336227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>-10.324592974720872</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>-9.3901440120680491</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>-13.606135123845888</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>-6.46128117092303</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>-6.9221335049951449</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>-6.9645386954653077</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>-10.779641595727298</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>-10.748377715353854</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>-8.7038734161615139</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>-17.486960384994745</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>-12.924934960901737</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>-7.6165781845338643</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>-9.8287961489040754</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>-10.745180273042934</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>-11.984466280191555</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>-11.283888195757754</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>-10.245668729803583</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>-8.8212636026219116</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>-9.8596479144907789</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>-11.617411271581659</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>-10.190377136277675</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>-10.12254304238013</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>-11.261466309188108</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>-10.7315946959352</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>-9.5205882896698313</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>-6.1924231683951803</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>-6.3089976517949253</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>-9.3526387243036879</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>-10.034140157367801</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>-4.8931417748099193</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>-7.1352622196718585</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>-12.74768012786808</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>-14.619369065039791</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>-11.763322643455467</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>-9.3944783227561857</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>-13.554930572136072</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>-14.677553988585714</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>-10.979068204287614</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>-11.690006001808797</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>-11.041323116623971</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>-12.829619916155934</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>-8.2086080763110658</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>-7.7821858010429423</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>-10.615176531937323</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>-12.800419451887137</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>-7.8577136516832979</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>-9.1077004324324662</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>-8.0306995439605089</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>-11.608461275282025</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>-15.576930561801419</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>-4.7683136269915849</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>-9.3865969827311346</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>-13.651655333669623</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>-9.8349323959700996</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>-9.9966519226290984</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>-12.713994717851165</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>-11.129802740251762</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>-9.3272922438336536</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>-11.280398009839701</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>-6.7190888128243387</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>-9.5371354089002125</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>-4.800327840493992</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>-9.7227945414124406</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>-6.3522327561804559</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>-8.1823009420622839</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>-12.460785708535695</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>-13.25439941661898</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>-7.399390849750489</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>-9.0466903909691609</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>-10.740982386560063</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>-10.863212790136458</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>-9.0217588674568105</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>-11.900150436995318</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>-11.137857452704338</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>-8.4501414473925252</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>-10.569150415685726</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>-13.58568286173977</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>-11.480913169871201</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>-8.7250475896871649</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>-14.840194378630258</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>-7.6676008373033255</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>-6.7739540807087906</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>-12.02322780751274</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>-11.220365675180801</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>-10.022663471099804</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>-11.755483935994562</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>-11.438957042410038</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>-11.026324980557547</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>-13.310088914076914</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>-12.705047563722474</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>-11.033819785334344</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>-10.192869720194722</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>-12.730951109697344</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>-8.5042450134642422</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>-10.660421051179583</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>-5.8868670546507929</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>-10.107417008621269</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>-12.986871550092474</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>-9.574242792732548</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>-9.873438127906411</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>-12.499893980711931</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>-17.177914085332304</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>-5.8241460262797773</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>-6.9713201153354021</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>-9.7424140474322485</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>-11.617172529222444</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>-10.568562086300517</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>-9.9214821855275659</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>-9.194216115938616</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>-11.663426019149483</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>-11.509042135694472</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>-9.3603495340721565</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>-8.7602080864235177</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>-4.0672751108650118</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>-9.8548588564517559</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>-8.6856835221260553</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>-13.066065801249351</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>-8.1273049343144521</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>-10.253930920735002</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>-7.7121490246645408</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>-9.1087207718010177</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>-9.9939745976007544</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>-10.674293687552563</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>-10.181557879841421</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>-6.7195435601752251</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>-11.279963157685415</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>-10.632539354228356</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>-9.7489510406012414</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>-10.503590058542613</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>-9.1337432447835454</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>-8.9983848536212463</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>-10.664581989440194</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>-7.0410499372519553</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>-10.051352344598854</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>-10.649930598228821</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>-12.720901193242753</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>-14.207834081171313</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>-6.470637597667519</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>-14.649223228625488</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>-10.613007955507783</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>-5.7497720970422961</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>-10.21206005840213</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>-10.486818407807732</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>-9.295312136382563</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>-7.9143126438430045</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>-8.6397881457378389</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>-6.8170072861539666</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>-13.422292138566263</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>-12.226045126008103</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>-9.681384110772342</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>-3.5560481389984488</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>-6.1746311782917473</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>-12.77584604191361</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>-10.406944877795468</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>-10.12254304238013</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>-12.950105226773303</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>-9.9846039600015501</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>-13.306877260911278</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>-8.8013485108240275</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>-9.5845257672044681</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>-11.903725888041663</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>-14.483979409997119</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>-8.9438492775661871</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>-7.7396328176837415</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>-14.254286523064366</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>-10.489936269332247</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>-11.759400447554071</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>-14.63955984741915</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>-13.060392828047043</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>-10.334239302901551</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>-10.386029341825633</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>-7.8441508119431091</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>-12.68793769464537</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>-6.2803144626377616</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>-10.966485913522774</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>-8.7573971793608507</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>-10.023237589630298</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>-11.649135583647876</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>-5.422149368096143</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>-7.6664184941910207</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>-6.7054691296652891</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>-11.425433993063052</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>-16.005484465276822</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>-9.4708161921153078</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>-12.59437342720048</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>-10.191528215509607</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>-11.531589077785611</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>-9.0194851307023782</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>-10.248550691139826</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>-8.3403910164270201</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>-9.8027163883307367</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>-10.455281679023756</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>-6.0503487272944767</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>-10.53172470870777</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>-9.680613882446778</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>-12.507152885300457</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>-8.0708707880694419</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>-9.0746033518007607</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>-12.286975586685003</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>-8.5042450134642422</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>-9.9285591911757365</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>-8.2849118396188715</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>-12.818399025272811</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>-10.154147983266739</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>-12.402771315246355</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>-6.0002696752781048</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>-10.537988853466231</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>-16.504160410258919</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>-9.7541408447432332</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>-9.2195569120667642</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>-15.477795639308169</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>-11.269509652956913</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>-10.93072571871744</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>-5.4584836814319715</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>-8.1141115767968586</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>-12.255478648294229</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>-8.9086148843853152</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>-6.6306290843931492</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>-13.368415946169989</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>-11.014683448374853</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>-11.957067752300645</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>-12.086500217046705</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>-10.752780238144624</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>-13.971786100009922</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>-14.480170900933444</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>-9.0248539916137815</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>-6.259941781318048</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>-7.696409081981983</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>-12.848207714123419</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>-11.382886694045737</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>-13.702996309584705</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>-6.690831949308631</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>-10.422650714426709</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>-9.7493347336785519</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>-11.611991251593281</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>-12.11726955967606</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>-6.3550067150208633</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>-13.440936779952608</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>-12.741387561400188</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>-11.684963990555843</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>-13.398531589482445</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>-9.5016764842148405</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>-4.5389390632044524</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>-5.9320803100126795</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>-9.8431718495339737</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>-7.2245120716252131</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>-8.495087538685766</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>-8.7580451943358639</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>-13.552833049980109</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>-7.4144543557486031</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>-6.4917492434324231</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>-10.058429350247025</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>-12.990782377310097</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>-8.8504640668907086</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>-7.6072217577893753</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>-6.5980975957791088</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>-10.844559622237284</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>-10.609264816375799</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>-13.498553269309923</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>-11.744243149914837</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>-14.617277227225713</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>-8.1300902618386317</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>-6.5176698424329516</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>-7.9159383656224236</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>-10.219930029743409</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>-11.417117800883716</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>-9.1129982390702935</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>-7.960009068265208</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>-11.962786200238043</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>-12.03519334718294</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>-12.208474825238227</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>-9.0045978393027326</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>-8.6422267284069676</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>-8.8714705523307202</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>-10.124455823424796</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>-12.085960204567527</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>-11.201442501042038</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>-9.7372242432902567</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>-10.304544300888665</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>-9.431437913699483</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>-12.390356712567154</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>-12.53962184615375</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>-10.62464380334859</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>-10.437597691416158</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>-10.585060888624866</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>-8.8907063652732177</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>-9.1643448993272614</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>-3.9162989903707057</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>-12.049341674137395</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>-13.035063400602667</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>-6.4286985232320148</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>-6.9681311995373107</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>-10.984647385848803</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>-8.0097641127940733</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>-6.8917109072208405</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>-12.611142235764419</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>-9.340963086069678</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>-11.67752887136885</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>-8.4366752414643997</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>-13.10828909277916</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>-8.410311263796757</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>-10.279896994470619</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>-10.62464380334859</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>-4.9908442431478761</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>-10.826963741928921</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>-11.771178403942031</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>-8.280310364862089</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>-9.690251684114628</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>-9.8055955074960366</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>-7.6489164055237779</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>-8.7291857905802317</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>-6.8070881095627556</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>-12.658470066307927</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>-10.1324991671936</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>-7.6240985688491492</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>-9.8337813167381682</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>-11.698668938843184</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>-5.4644408717285842</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>-8.7563114700606093</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>-7.724336253668298</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>-11.864094656411908</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>-1.4318323135375977</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>-14.250227902957704</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>-11.663426019149483</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>-7.6265030454669613</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>-11.249316028406611</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>-11.193291154777398</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>-11.759644874255173</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>-11.666768412178499</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>-10.130393118524808</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>-8.9052469118178124</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>-15.077936293673702</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>-13.186437425028998</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>-11.699635276963818</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>-8.2219321736920392</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>-9.9465444489032961</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>-10.263545985035307</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>-10.717633952262986</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>-8.5422704185111797</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>-9.9825007535037003</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>-7.0263615978183225</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>-7.5457285472657531</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>-10.92519201189134</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>-12.423496425763005</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>-9.3259052644134499</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>-11.651750380915473</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>-12.54764245255501</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>-12.342761717955</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>-8.6795330642053159</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>-9.2346033650392201</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>-13.608840870583663</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>-10.329609406435338</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>-9.9042586296127411</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>-13.712762008944992</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>-8.7970568327000365</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>-7.2085163335577818</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>-12.673323251656257</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>-9.4005804637708934</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>-8.9184914284123806</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="H2:H9">
+    <sortCondition ref="H2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>